--- a/docs/PT2ov/PT2ov_02.08.24_output.xlsx
+++ b/docs/PT2ov/PT2ov_02.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K116"/>
+  <dimension ref="A1:N116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,679 +505,803 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1730814752.046842</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1730814754.6928332</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730814752.046842.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730814754.6928332.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>286.87</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>285.89</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.9800000000000182</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1730814755.265111</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1730814757.1286213</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1730814755.265111.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1730814757.1286213.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>286.12</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>284.88</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>1.240000000000009</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1730814758.4546254</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1730814758.5113356</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1730814758.4546254.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1730814758.5113356.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>285.58</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>285.79</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.2100000000000364</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1730814758.6907165</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1730814761.982582</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1730814758.6907165.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1730814761.982582.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>285.89</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>285.07</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.8199999999999932</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1730814767.0441196</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1730814767.099754</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1730814767.0441196.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1730814767.099754.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>284.96</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>284.99</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.03000000000002956</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1730814767.161469</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1730814773.3471842</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1730814767.161469.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1730814773.3471842.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>284.97</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>286.58</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-1.609999999999957</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.5599999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1730814783.225996</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1730814783.5744438</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1730814783.225996.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1730814783.5744438.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>285.89</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>285.94</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.05000000000001137</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1730814785.1192093</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1730814787.8471808</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730814785.1192093.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730814787.8471808.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>132.46</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>131.95</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.5100000000000193</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1730814793.3454905</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1730814795.0573914</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730814793.3454905.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730814795.0573914.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>131.14</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>130.5</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.6399999999999864</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1730814797.5134985</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1730814799.3840246</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730814797.5134985.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730814799.3840246.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>130.53</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>130.34</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1730814799.4396844</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1730814806.669377</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730814799.4396844.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730814806.669377.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>130.3</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>131.55</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-1.25</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.96</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1730814810.084516</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1730814810.3070426</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730814810.084516.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730814810.3070426.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>130.99</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>130.98</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.01000000000001933</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1730814813.9919088</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1730814815.0385556</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730814813.9919088.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730814815.0385556.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>131.2</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>131.2</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1170,3234 +1309,3837 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1730814818.339311</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1730814818.577076</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730814818.339311.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730814818.577076.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>6677.5</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>6675.5</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1730814818.7976794</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1730814823.2289836</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730814818.7976794.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730814823.2289836.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>6681</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>6646.5</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>34.5</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1730814826.537455</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1730814828.287574</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730814826.537455.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730814828.287574.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>6646.5</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>6624.5</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>22</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1730814830.6454206</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1730814832.7842212</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730814830.6454206.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730814832.7842212.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>6622.5</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>6602.5</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>20</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1730814833.1817555</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1730814833.2793565</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730814833.1817555.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730814833.2793565.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>6614.5</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>6607.5</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1730814833.3759842</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1730814838.8445034</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730814833.3759842.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730814838.8445034.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>6611</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>6638</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-27</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1730814842.895744</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1730814843.9915628</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730814842.895744.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730814843.9915628.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>6605</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>6594.5</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>10.5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1730814873.7038965</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1730814875.1807425</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730814873.7038965.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730814875.1807425.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>505.15</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>504.85</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.2999999999999545</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1730814883.2179286</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1730814887.2963786</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730814883.2179286.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730814887.2963786.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>229.07</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>228.5</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.5699999999999932</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1730814889.3708196</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1730814892.5470493</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730814889.3708196.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730814892.5470493.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>228.42</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>227.79</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.6299999999999955</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1730814894.0543308</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1730814896.278958</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730814894.0543308.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730814896.278958.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>228.27</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>227.44</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.8300000000000125</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1730814896.446961</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1730814903.3622847</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730814896.446961.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730814903.3622847.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>227.77</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>229.5</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-1.72999999999999</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.76</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1730814903.7684388</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1730814907.7223344</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730814903.7684388.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730814907.7223344.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>229.64</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>230.28</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.6400000000000148</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1730814912.674489</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1730814912.674489.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+          <t>./test_images/MOEX1730814912.674489.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>229.99</v>
       </c>
-      <c r="J29" t="n">
-        <v>229.99</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
+      <c r="L29" t="n">
+        <v>230.16</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-0.1699999999999875</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1730814922.5377758</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1730814924.4125707</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730814922.5377758.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730814924.4125707.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>1025.8</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>1020.8</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>5</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1730814926.694782</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1730814928.0767078</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730814926.694782.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730814928.0767078.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>1022.4</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>1016.6</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>5.799999999999955</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.5700000000000001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1730814930.1265228</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1730814935.9855301</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730814930.1265228.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730814935.9855301.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1019</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1021</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-2</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1730814938.7266362</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1730814938.9133024</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730814938.7266362.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730814938.9133024.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>1021</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>1020.2</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.7999999999999545</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1730814938.9699135</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1730814939.9022534</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730814938.9699135.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730814939.9022534.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>1021</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>1019.8</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>1.200000000000045</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1730814940.7661326</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1730814941.5462184</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730814940.7661326.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730814941.5462184.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>1019.6</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>1018.8</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.8000000000000682</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1730814942.4985247</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1730814943.5147297</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730814942.4985247.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730814943.5147297.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>1018.2</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>1018.4</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-0.1999999999999318</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1730814949.913583</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1730814949.9984944</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/CNY1730814949.913583.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/CNY1730814949.9984944.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>11.868</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>11.869</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.0009999999999994458</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1730814951.4308228</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1730814951.7070036</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730814951.4308228.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730814951.7070036.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>128.66</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>128.44</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1730814951.8436716</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1730814954.2012994</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730814951.8436716.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730814954.2012994.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>128.64</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>128.18</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.4599999999999795</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1730814959.3967476</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1730814959.6192443</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730814959.3967476.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730814959.6192443.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>127.9</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>127.88</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.02000000000001023</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1730814959.6749034</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1730814961.076471</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730814959.6749034.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730814961.076471.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>127.88</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>127.5</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.3799999999999955</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1730814962.805149</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1730814971.550354</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730814962.805149.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730814971.550354.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>128</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>128.44</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.4399999999999977</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1730814981.7310014</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1730814981.7310014.png</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1730814981.7310014.png</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>127.68</v>
       </c>
-      <c r="J43" t="n">
-        <v>127.68</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
+      <c r="L43" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.01999999999999602</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1730814988.7737825</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1730814993.1680746</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730814988.7737825.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730814993.1680746.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>164.4</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>164.04</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.3600000000000136</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1730814995.4103053</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1730814998.3756468</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730814995.4103053.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730814998.3756468.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>164.78</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>164.2</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.5800000000000125</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1730815003.8670273</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1730815009.4667835</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730815003.8670273.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730815009.4667835.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>165.8</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>165.36</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.4399999999999977</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1730815010.8776417</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1730815011.3754015</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730815010.8776417.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730815011.3754015.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>165.1</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>165.04</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-0.06000000000000227</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1730815013.9451554</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1730815014.003715</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730815013.9451554.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730815014.003715.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>50.53</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>50.6</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.07000000000000028</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1730815014.1906095</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1730815014.458039</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730815014.1906095.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730815014.458039.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>50.57</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>50.385</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.1850000000000023</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1730815014.7703865</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1730815014.8689878</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730815014.7703865.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730815014.8689878.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>50.46</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>50.435</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.02499999999999858</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1730815015.143634</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1730815019.588693</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730815015.143634.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730815019.588693.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>50.495</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>50.385</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1730815021.2704356</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1730815025.781518</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730815021.2704356.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730815025.781518.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>50.395</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>50.475</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-0.07999999999999829</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1730815029.8731427</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1730815030.911701</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730815029.8731427.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730815030.911701.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>50.35</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>50.23</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1730815031.430247</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1730815031.613729</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730815031.430247.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730815031.613729.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>50.305</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>50.21</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.09499999999999886</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1730815032.944406</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1730815042.168143</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730815032.944406.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730815042.168143.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>50.27</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>50.39</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-0.1199999999999974</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1730815042.1857107</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1730815044.9102583</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730815042.1857107.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730815044.9102583.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>50.39</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>50.4</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.00999999999999801</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1730815045.6481917</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1730815045.6481917.png</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1730815045.6481917.png</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>50.405</v>
       </c>
-      <c r="J57" t="n">
-        <v>50.405</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
+      <c r="L57" t="n">
+        <v>50.39</v>
+      </c>
+      <c r="M57" t="n">
+        <v>-0.01500000000000057</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1730815047.4881198</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1730815047.664748</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730815047.4881198.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730815047.664748.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>1409.4</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>1408.4</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1730815047.923579</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1730815052.0313942</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730815047.923579.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730815052.0313942.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>1408.6</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>1405</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>3.599999999999909</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1730815055.360893</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1730815057.107599</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730815055.360893.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730815057.107599.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>1406</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>1405.2</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.7999999999999545</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1730815059.0065196</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1730815062.2661965</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730815059.0065196.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730815062.2661965.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>1405</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>1397.6</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>7.400000000000091</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1730815063.389632</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1730815068.704482</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730815063.389632.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730815068.704482.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>1400.8</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>1395.8</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>5</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1730815070.2108727</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1730815073.236845</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730815070.2108727.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730815073.236845.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>1397.8</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>1400.2</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-2.400000000000091</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1730815073.2534351</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1730815074.797836</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730815073.2534351.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730815074.797836.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>1400.2</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>1399.8</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-0.4000000000000909</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1730815077.2858794</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1730815077.2858794.png</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1730815077.2858794.png</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>1405</v>
       </c>
-      <c r="J65" t="n">
-        <v>1405</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
+      <c r="L65" t="n">
+        <v>1405.4</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.4000000000000909</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1730815078.4681246</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1730815078.5638008</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730815078.4681246.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730815078.5638008.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>60.61</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>60.46</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.1499999999999986</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1730815079.400388</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1730815081.8195126</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730815079.400388.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730815081.8195126.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>60.7</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>60.86</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-0.1599999999999966</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.26</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1730815086.0314713</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1730815089.2508876</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730815086.0314713.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730815089.2508876.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>60.5</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>60.38</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.1199999999999974</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1730815094.0958173</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1730815094.6843789</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730815094.0958173.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730815094.6843789.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>60.14</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>60.13</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.00999999999999801</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1730815094.7577326</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1730815099.9072208</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730815094.7577326.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730815099.9072208.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>60.13</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>60.52</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>-0.3900000000000006</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-0.65</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1730815102.6066663</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1730815106.7687488</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730815102.6066663.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730815106.7687488.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>60.17</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>60.2</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>-0.03000000000000114</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1730815107.875996</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1730815108.3435254</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730815107.875996.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730815108.3435254.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>60.28</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>60.39</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1730815108.8768482</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1730815108.8768482.png</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1730815108.8768482.png</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>60.33</v>
       </c>
-      <c r="J73" t="n">
-        <v>60.33</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0</v>
+      <c r="L73" t="n">
+        <v>60.26</v>
+      </c>
+      <c r="M73" t="n">
+        <v>-0.07000000000000028</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1730815115.4760492</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1730815117.8740363</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/SELG1730815115.4760492.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/SELG1730815117.8740363.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>57.47</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>57</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.4699999999999989</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.8200000000000001</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1730815121.9688208</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1730815125.2026193</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/SELG1730815121.9688208.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/SELG1730815125.2026193.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>56.84</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>56.49</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.3500000000000014</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.62</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1730815145.4163034</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1730815145.4163034.png</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
+          <t>./test_images/SELG1730815145.4163034.png</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>57.05</v>
       </c>
-      <c r="J76" t="n">
-        <v>57.05</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
+      <c r="L76" t="n">
+        <v>57.13</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.0800000000000054</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1730815167.0368123</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1730815173.3392553</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730815167.0368123.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730815173.3392553.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>145.36</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>145.94</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.5799999999999841</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1730815178.050946</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1730815181.4994035</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730815178.050946.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730815181.4994035.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>21.06</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>20.748</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.3119999999999976</v>
+      </c>
+      <c r="N78" t="n">
+        <v>1.48</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1730815184.3666122</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1730815187.9275482</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730815184.3666122.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730815187.9275482.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>20.68</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>20.631</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.04899999999999949</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1730815190.3522406</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1730815195.1946166</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730815190.3522406.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730815195.1946166.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>20.775</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>20.77</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.004999999999999005</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1730815207.3652503</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1730815208.9116874</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730815207.3652503.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730815208.9116874.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>20.903</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>20.876</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>-0.02699999999999747</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1730815210.7456543</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1730815210.8032384</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730815210.7456543.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730815210.8032384.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>677.55</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>677.55</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4405,579 +5147,687 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1730815210.8608506</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1730815211.9114006</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730815210.8608506.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730815211.9114006.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>677.8</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>677</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>0.7999999999999545</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1730815211.970936</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1730815214.088288</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730815211.970936.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730815214.088288.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>677.6</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>675.2</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>2.399999999999977</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1730815217.0063722</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1730815221.2501416</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730815217.0063722.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730815221.2501416.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>674.05</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>671.35</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>2.699999999999932</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1730815227.4921994</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1730815232.4685092</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730815227.4921994.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730815232.4685092.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>665.1</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>672.65</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>-7.549999999999955</v>
+      </c>
+      <c r="N86" t="n">
+        <v>-1.14</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1730815236.9151645</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1730815237.6143074</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730815236.9151645.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730815237.6143074.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>674.1</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>674.6</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1730815239.0650198</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1730815239.118875</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730815239.0650198.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730815239.118875.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>675.95</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>676.75</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>0.7999999999999545</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1730815239.4731643</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1730815239.4731643.png</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1730815239.4731643.png</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>676.45</v>
       </c>
-      <c r="J89" t="n">
-        <v>676.45</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0</v>
+      <c r="L89" t="n">
+        <v>677.45</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1730815241.3927968</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1730815241.4494038</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/FEES1730815241.3927968.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/FEES1730815241.4494038.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>0.09914000000000001</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>0.09920000000000001</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>-6.000000000000449e-05</v>
+      </c>
+      <c r="N90" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1730815241.633867</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1730815241.898343</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/FEES1730815241.633867.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/FEES1730815241.898343.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>0.09916000000000001</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>0.09906000000000001</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>0.0001000000000000029</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1730815241.9697638</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1730815249.5237641</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/FEES1730815241.9697638.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/FEES1730815249.5237641.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>0.09906000000000001</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>0.10036</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>-0.001299999999999996</v>
+      </c>
+      <c r="N92" t="n">
+        <v>-1.31</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1730815265.514664</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1730815266.0617535</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/FEES1730815265.514664.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/FEES1730815266.0617535.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>0.09910000000000001</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>0.09886</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>0.0002400000000000041</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1730815266.1603653</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1730815267.0912175</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/FEES1730815266.1603653.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/FEES1730815267.0912175.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>0.09906000000000001</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>0.09906000000000001</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4985,971 +5835,1151 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1730815268.1975274</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1730815271.2491372</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/FEES1730815268.1975274.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/FEES1730815271.2491372.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>0.09888000000000001</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>0.09908</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>-0.0001999999999999919</v>
+      </c>
+      <c r="N95" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1730815273.5419073</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1730815277.3968375</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730815273.5419073.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730815277.3968375.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>0.5998</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>0.5985</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>0.001299999999999968</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1730815279.7207963</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1730815283.0093458</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730815279.7207963.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730815283.0093458.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>0.5991000000000001</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>0.5973000000000001</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>0.001800000000000024</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1730815291.4484036</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1730815299.123277</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730815291.4484036.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730815299.123277.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>0.6027</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>0.6025</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>-0.000199999999999978</v>
+      </c>
+      <c r="N98" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1730815300.8087373</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1730815301.8923717</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/MXI1730815300.8087373.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/MXI1730815301.8923717.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>2984.9</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>2993.75</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>-8.849999999999909</v>
+      </c>
+      <c r="N99" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1730815302.6578908</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1730815302.7125468</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/MXI1730815302.6578908.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/MXI1730815302.7125468.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>2991.8</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>2990.85</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>0.9500000000002728</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1730815305.1239598</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>1730815305.5632005</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>./test_images/MXI1730815305.1239598.png</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>./test_images/MXI1730815305.5632005.png</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>2984.1</v>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>2975.95</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>8.150000000000091</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1730815306.3154497</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>1730815307.1577365</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>./test_images/MXI1730815306.3154497.png</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>./test_images/MXI1730815307.1577365.png</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>2973.95</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>2971.1</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>2.849999999999909</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>1730815312.3791416</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>1730815312.4757683</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>./test_images/MXI1730815312.3791416.png</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>./test_images/MXI1730815312.4757683.png</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
         <v>2962.35</v>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>2963.5</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>-1.150000000000091</v>
+      </c>
+      <c r="N103" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>1730815312.5333495</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>1730815313.6431684</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>./test_images/MXI1730815312.5333495.png</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>./test_images/MXI1730815313.6431684.png</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
         <v>2962.25</v>
       </c>
-      <c r="J104" t="n">
+      <c r="L104" t="n">
         <v>2962.5</v>
       </c>
-      <c r="K104" t="n">
+      <c r="M104" t="n">
         <v>-0.25</v>
+      </c>
+      <c r="N104" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>1730815314.8741488</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>1730815317.6573584</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>./test_images/MXI1730815314.8741488.png</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>./test_images/MXI1730815317.6573584.png</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
         <v>2960</v>
       </c>
-      <c r="J105" t="n">
+      <c r="L105" t="n">
         <v>2965.05</v>
       </c>
-      <c r="K105" t="n">
+      <c r="M105" t="n">
         <v>-5.050000000000182</v>
+      </c>
+      <c r="N105" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>1730815317.6749277</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>1730815317.7315066</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>./test_images/MXI1730815317.6749277.png</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>./test_images/MXI1730815317.7315066.png</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
         <v>2965.05</v>
       </c>
-      <c r="J106" t="n">
+      <c r="L106" t="n">
         <v>2965.7</v>
       </c>
-      <c r="K106" t="n">
+      <c r="M106" t="n">
         <v>0.6499999999996362</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
+        <v>105</v>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>1730815318.8198178</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>1730815319.086266</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>./test_images/MXI1730815318.8198178.png</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>./test_images/MXI1730815319.086266.png</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
         <v>2970.1</v>
       </c>
-      <c r="J107" t="n">
+      <c r="L107" t="n">
         <v>2973.4</v>
       </c>
-      <c r="K107" t="n">
+      <c r="M107" t="n">
         <v>3.300000000000182</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="n">
+        <v>106</v>
+      </c>
+      <c r="D108" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>1730815319.9676063</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>1730815320.2460973</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>./test_images/MXI1730815319.9676063.png</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>./test_images/MXI1730815320.2460973.png</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I108" t="n">
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
         <v>2980.4</v>
       </c>
-      <c r="J108" t="n">
+      <c r="L108" t="n">
         <v>2984</v>
       </c>
-      <c r="K108" t="n">
+      <c r="M108" t="n">
         <v>3.599999999999909</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" t="n">
+        <v>107</v>
+      </c>
+      <c r="C109" t="n">
+        <v>107</v>
+      </c>
+      <c r="D109" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>1730815320.849299</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>1730815321.7710772</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>./test_images/MXI1730815320.849299.png</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>./test_images/MXI1730815321.7710772.png</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
         <v>2979.7</v>
       </c>
-      <c r="J109" t="n">
+      <c r="L109" t="n">
         <v>2977.65</v>
       </c>
-      <c r="K109" t="n">
+      <c r="M109" t="n">
         <v>-2.049999999999727</v>
+      </c>
+      <c r="N109" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" t="n">
+        <v>108</v>
+      </c>
+      <c r="C110" t="n">
+        <v>108</v>
+      </c>
+      <c r="D110" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>1730815323.8070016</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>1730815324.9460824</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>./test_images/MXI1730815323.8070016.png</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>./test_images/MXI1730815324.9460824.png</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
         <v>2962.3</v>
       </c>
-      <c r="J110" t="n">
+      <c r="L110" t="n">
         <v>2960.55</v>
       </c>
-      <c r="K110" t="n">
+      <c r="M110" t="n">
         <v>1.75</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" t="n">
+        <v>109</v>
+      </c>
+      <c r="C111" t="n">
+        <v>109</v>
+      </c>
+      <c r="D111" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>1730815330.2920015</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>1730815330.4159853</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>./test_images/MXI1730815330.2920015.png</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>./test_images/MXI1730815330.4159853.png</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I111" t="n">
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
         <v>2964.05</v>
       </c>
-      <c r="J111" t="n">
+      <c r="L111" t="n">
         <v>2964.95</v>
       </c>
-      <c r="K111" t="n">
+      <c r="M111" t="n">
         <v>0.8999999999996362</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" t="n">
+        <v>110</v>
+      </c>
+      <c r="C112" t="n">
+        <v>110</v>
+      </c>
+      <c r="D112" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>1730815330.7264817</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>1730815330.9598103</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>./test_images/MXI1730815330.7264817.png</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>./test_images/MXI1730815330.9598103.png</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I112" t="n">
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
         <v>2964.6</v>
       </c>
-      <c r="J112" t="n">
+      <c r="L112" t="n">
         <v>2966</v>
       </c>
-      <c r="K112" t="n">
+      <c r="M112" t="n">
         <v>1.400000000000091</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B113" t="n">
+        <v>111</v>
+      </c>
+      <c r="C113" t="n">
+        <v>111</v>
+      </c>
+      <c r="D113" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>1730815331.4039648</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>1730815331.4927537</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>./test_images/MXI1730815331.4039648.png</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>./test_images/MXI1730815331.4927537.png</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="I113" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I113" t="n">
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
         <v>2964.35</v>
       </c>
-      <c r="J113" t="n">
+      <c r="L113" t="n">
         <v>2965.65</v>
       </c>
-      <c r="K113" t="n">
+      <c r="M113" t="n">
         <v>1.300000000000182</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" t="n">
+        <v>112</v>
+      </c>
+      <c r="C114" t="n">
+        <v>112</v>
+      </c>
+      <c r="D114" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>1730815332.02571</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1730815332.02571.png</t>
         </is>
       </c>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr">
         <is>
+          <t>./test_images/MXI1730815332.02571.png</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
         <v>2965.3</v>
       </c>
-      <c r="J114" t="n">
+      <c r="L114" t="n">
         <v>2965.3</v>
       </c>
-      <c r="K114" t="n">
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5957,98 +6987,116 @@
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" t="n">
+        <v>113</v>
+      </c>
+      <c r="C115" t="n">
+        <v>113</v>
+      </c>
+      <c r="D115" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>1730815340.0387058</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>1730815344.1548262</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730815340.0387058.png</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730815344.1548262.png</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I115" t="n">
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
         <v>34.24</v>
       </c>
-      <c r="J115" t="n">
+      <c r="L115" t="n">
         <v>34.095</v>
       </c>
-      <c r="K115" t="n">
+      <c r="M115" t="n">
         <v>0.1450000000000031</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" t="n">
+        <v>114</v>
+      </c>
+      <c r="C116" t="n">
+        <v>114</v>
+      </c>
+      <c r="D116" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>1730815355.9368553</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>1730815357.5977905</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730815355.9368553.png</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730815357.5977905.png</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I116" t="n">
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
         <v>34.235</v>
       </c>
-      <c r="J116" t="n">
+      <c r="L116" t="n">
         <v>34.17</v>
       </c>
-      <c r="K116" t="n">
+      <c r="M116" t="n">
         <v>0.06499999999999773</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.19</v>
       </c>
     </row>
   </sheetData>
@@ -6062,7 +7110,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6086,6 +7134,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -6099,6 +7162,15 @@
       <c r="C2" t="n">
         <v>16</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -6107,11 +7179,20 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2750000000000057</v>
+        <v>0.2600000000000051</v>
       </c>
       <c r="C3" t="n">
         <v>10</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.02600000000000051</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -6120,11 +7201,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.99999999999977</v>
+        <v>15.39999999999986</v>
       </c>
       <c r="C4" t="n">
         <v>8</v>
       </c>
+      <c r="D4" t="n">
+        <v>1.924999999999983</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -6133,11 +7223,20 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3500000000001364</v>
+        <v>0.6499999999998636</v>
       </c>
       <c r="C5" t="n">
         <v>8</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.08124999999998295</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.06999999999999997</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -6146,11 +7245,20 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1900000000000048</v>
+        <v>-0.2600000000000051</v>
       </c>
       <c r="C6" t="n">
         <v>8</v>
       </c>
+      <c r="D6" t="n">
+        <v>-0.03250000000000064</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.43</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.05</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -6164,6 +7272,15 @@
       <c r="C7" t="n">
         <v>7</v>
       </c>
+      <c r="D7" t="n">
+        <v>1.628571428571442</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -6177,6 +7294,15 @@
       <c r="C8" t="n">
         <v>7</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.1771428571428584</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4400000000000001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -6190,6 +7316,15 @@
       <c r="C9" t="n">
         <v>7</v>
       </c>
+      <c r="D9" t="n">
+        <v>9.857142857142858</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -6198,11 +7333,20 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9400000000000261</v>
+        <v>0.7700000000000387</v>
       </c>
       <c r="C10" t="n">
         <v>6</v>
       </c>
+      <c r="D10" t="n">
+        <v>0.1283333333333398</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.3399999999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -6216,6 +7360,15 @@
       <c r="C11" t="n">
         <v>6</v>
       </c>
+      <c r="D11" t="n">
+        <v>-0.0002033333333333308</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-1.23</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -6229,6 +7382,15 @@
       <c r="C12" t="n">
         <v>6</v>
       </c>
+      <c r="D12" t="n">
+        <v>0.01666666666667046</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.07999999999999995</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -6237,11 +7399,20 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6399999999999864</v>
+        <v>0.6599999999999824</v>
       </c>
       <c r="C13" t="n">
         <v>6</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.1099999999999971</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -6255,6 +7426,15 @@
       <c r="C14" t="n">
         <v>4</v>
       </c>
+      <c r="D14" t="n">
+        <v>0.08474999999999966</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -6268,6 +7448,15 @@
       <c r="C15" t="n">
         <v>4</v>
       </c>
+      <c r="D15" t="n">
+        <v>0.1100000000000065</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -6281,6 +7470,15 @@
       <c r="C16" t="n">
         <v>3</v>
       </c>
+      <c r="D16" t="n">
+        <v>0.0009666666666666712</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -6289,11 +7487,20 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8200000000000003</v>
+        <v>0.9000000000000057</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
       </c>
+      <c r="D17" t="n">
+        <v>0.3000000000000019</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -6307,6 +7514,15 @@
       <c r="C18" t="n">
         <v>2</v>
       </c>
+      <c r="D18" t="n">
+        <v>0.1050000000000004</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -6320,6 +7536,15 @@
       <c r="C19" t="n">
         <v>1</v>
       </c>
+      <c r="D19" t="n">
+        <v>0.2999999999999545</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -6333,6 +7558,15 @@
       <c r="C20" t="n">
         <v>1</v>
       </c>
+      <c r="D20" t="n">
+        <v>0.0009999999999994458</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -6346,6 +7580,15 @@
       <c r="C21" t="n">
         <v>1</v>
       </c>
+      <c r="D21" t="n">
+        <v>0.5799999999999841</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -6359,6 +7602,11 @@
       <c r="C22" t="n">
         <v>0</v>
       </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
